--- a/DDAf_2020_tableau_annexe_Tab09.xlsx
+++ b/DDAf_2020_tableau_annexe_Tab09.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Tab09" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="171">
   <si>
     <t>Tableau 9: Caractéristiques de la population active</t>
   </si>
@@ -34,13 +34,13 @@
     <t>Pays (pays riches en ressources ombrés)</t>
   </si>
   <si>
-    <t>Emploi en % de la population de 15 ans et plus, 2019</t>
-  </si>
-  <si>
-    <t>Emploi en % de la population âgée de 15 ans et plus, hommes, 2019</t>
-  </si>
-  <si>
-    <t>Emploi en % de la population âgée de 15 ans et plus, femmes, 2019</t>
+    <t>Emploi en % de la population âgée de 15 ans et plus, 2019</t>
+  </si>
+  <si>
+    <t>Emploi en % de la population âgée de 15 ans et plus, de sexe féminin, 2019</t>
+  </si>
+  <si>
+    <t>Emploi en % de la population âgée de 15 ans et plus, de sexe masculin, 2019</t>
   </si>
   <si>
     <t>Pourcentage de travailleurs ayant un emploi vulnérable, 2019</t>
@@ -52,7 +52,7 @@
     <t>Pourcentage de travailleurs âgés de 15 ans et plus classés comme employeurs, 2019</t>
   </si>
   <si>
-    <t>Pourcentage de travailleurs âgés de 15 ans et plus classés comme travailleurs indépendants, 2019</t>
+    <t>Pourcentage de travailleurs âgés de 15 ans et plus classés comme travailleurs à leur propre compte, 2019</t>
   </si>
   <si>
     <t>Pourcentage de travailleurs âgés de 15 ans et plus classés comme travailleurs familiaux contributeurs, 2019</t>
@@ -511,7 +511,7 @@
     <t>Note : *Pays riches en ressources ; ".."signifie que les données ne sont pas disponibles ou qu'elles ne sont pas valables.</t>
   </si>
   <si>
-    <t>RDM = "Reste du monde" ; LAC = "Pays d'Amérique latine et des Caraîbes"</t>
+    <t>RDM = "Reste du monde" ; LAC = "Pays d'Amérique latine et des Caraïbes"</t>
   </si>
   <si>
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
@@ -520,7 +520,97 @@
     <t>Source : Organisation internationale du Travail - ILOSTAT (récupérés le 25/10/2020).</t>
   </si>
   <si>
-    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les séries chronologiques historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-fr-2020.</t>
+    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-fr-2020.</t>
+  </si>
+  <si>
+    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
+  </si>
+  <si>
+    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pour télécharger toutes les données de l'annexe statistique des </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dynamiques du développement en Afrique</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> au format csv compressé, y compris les données historiques remontant à 2000, cliquez ici.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pour télécharger toutes les données de l'annexe statistique des </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dynamiques du développement en Afrique</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> au format Excel non compressé, y compris les données historiques remontant à 2000, cliquez ici pour télécharger le premier des deux fichiers de données.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pour télécharger toutes les données de l'annexe statistique des </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dynamiques du développement en Afrique</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> au format Excel non compressé, y compris les données historiques remontant à 2000, cliquez ici pour télécharger le deuxième des deux fichiers de données</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -532,7 +622,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,6 +745,15 @@
       <i/>
       <u/>
       <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -833,9 +932,11 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -857,7 +958,9 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -885,7 +988,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -895,7 +1000,9 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -905,7 +1012,9 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -939,13 +1048,19 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1232,15 +1347,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J105"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="44" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" style="46" customWidth="1"/>
     <col min="4" max="10" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1618,28 +1733,28 @@
         <v>32</v>
       </c>
       <c r="C13" s="21">
-        <v>70.089665690443695</v>
+        <v>69.678200000000004</v>
       </c>
       <c r="D13" s="21">
-        <v>66.138381605577194</v>
+        <v>65.424599999999998</v>
       </c>
       <c r="E13" s="22">
-        <v>74.313722135942697</v>
+        <v>74.278599999999997</v>
       </c>
       <c r="F13" s="21">
-        <v>49.365998401005101</v>
+        <v>46.738294835336397</v>
       </c>
       <c r="G13" s="21">
-        <v>52.7764107389266</v>
+        <v>43.3277369568914</v>
       </c>
       <c r="H13" s="21">
-        <v>3.7858488131858001</v>
+        <v>2.9621864627112</v>
       </c>
       <c r="I13" s="21">
-        <v>35.016554301869299</v>
+        <v>42.5861336120403</v>
       </c>
       <c r="J13" s="22">
-        <v>8.4211836303505407</v>
+        <v>11.123944499848699</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -1938,28 +2053,28 @@
         <v>51</v>
       </c>
       <c r="C23" s="21">
-        <v>67.805614913010501</v>
+        <v>67.049111111111102</v>
       </c>
       <c r="D23" s="21">
-        <v>64.3069616959868</v>
+        <v>60.878</v>
       </c>
       <c r="E23" s="22">
-        <v>71.339842265160797</v>
+        <v>73.019444444444503</v>
       </c>
       <c r="F23" s="21">
-        <v>80.631728845483394</v>
+        <v>73.896321688751897</v>
       </c>
       <c r="G23" s="21">
-        <v>18.1912689423866</v>
+        <v>17.231970268763</v>
       </c>
       <c r="H23" s="21">
-        <v>2.0108209709976101</v>
+        <v>1.8614470904040401</v>
       </c>
       <c r="I23" s="21">
-        <v>60.995605688576099</v>
+        <v>61.388428924966398</v>
       </c>
       <c r="J23" s="22">
-        <v>18.802308156572501</v>
+        <v>19.518157339294</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
@@ -2418,28 +2533,28 @@
         <v>81</v>
       </c>
       <c r="C38" s="21">
-        <v>73.801970478504998</v>
+        <v>68.171153846153899</v>
       </c>
       <c r="D38" s="21">
-        <v>67.115802535736705</v>
+        <v>60.396461538461601</v>
       </c>
       <c r="E38" s="22">
-        <v>80.642476006420694</v>
+        <v>76.037846153846203</v>
       </c>
       <c r="F38" s="21">
-        <v>74.468632389808704</v>
+        <v>67.831933298245303</v>
       </c>
       <c r="G38" s="21">
-        <v>19.6863792751804</v>
+        <v>22.3783365811796</v>
       </c>
       <c r="H38" s="21">
-        <v>1.3874600786248501</v>
+        <v>1.85704714407785</v>
       </c>
       <c r="I38" s="21">
-        <v>47.739543756318398</v>
+        <v>47.185984896315396</v>
       </c>
       <c r="J38" s="22">
-        <v>31.186618111819499</v>
+        <v>28.578632637501901</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
@@ -2642,28 +2757,28 @@
         <v>94</v>
       </c>
       <c r="C45" s="21">
-        <v>45.178202381442901</v>
+        <v>45.7605</v>
       </c>
       <c r="D45" s="21">
-        <v>20.9536964863787</v>
+        <v>24.094833333333298</v>
       </c>
       <c r="E45" s="22">
-        <v>69.554428193337699</v>
+        <v>67.699833333333402</v>
       </c>
       <c r="F45" s="21">
-        <v>27.036071038468702</v>
+        <v>28.907002757670401</v>
       </c>
       <c r="G45" s="21">
-        <v>66.748341873909595</v>
+        <v>65.597757728590494</v>
       </c>
       <c r="H45" s="21">
-        <v>8.8430320298066807</v>
+        <v>7.12788902899368</v>
       </c>
       <c r="I45" s="21">
-        <v>16.135678021186799</v>
+        <v>18.929618005390999</v>
       </c>
       <c r="J45" s="22">
-        <v>8.2729373724738107</v>
+        <v>8.3447298691776908</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
@@ -3152,28 +3267,28 @@
         <v>125</v>
       </c>
       <c r="C61" s="21">
-        <v>58.707740259608997</v>
+        <v>64.576800000000006</v>
       </c>
       <c r="D61" s="21">
-        <v>52.920907220819899</v>
+        <v>58.823666666666703</v>
       </c>
       <c r="E61" s="22">
-        <v>64.529474974623696</v>
+        <v>70.490399999999994</v>
       </c>
       <c r="F61" s="21">
-        <v>78.368611054679405</v>
+        <v>76.500452652544894</v>
       </c>
       <c r="G61" s="21">
-        <v>18.640944682498802</v>
+        <v>18.5193355291158</v>
       </c>
       <c r="H61" s="21">
-        <v>3.6868887930494001</v>
+        <v>2.86723381749225</v>
       </c>
       <c r="I61" s="21">
-        <v>63.3869905053281</v>
+        <v>60.896152726430998</v>
       </c>
       <c r="J61" s="22">
-        <v>14.285171218735201</v>
+        <v>17.717277099375799</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3182,28 +3297,28 @@
         <v>126</v>
       </c>
       <c r="C62" s="25">
-        <v>63.666081700921502</v>
+        <v>64.710641509433998</v>
       </c>
       <c r="D62" s="25">
-        <v>55.274480125578997</v>
+        <v>56.872188679245298</v>
       </c>
       <c r="E62" s="26">
-        <v>72.178550308554506</v>
+        <v>72.679396226415093</v>
       </c>
       <c r="F62" s="25">
-        <v>65.523892373453606</v>
+        <v>62.928561938934202</v>
       </c>
       <c r="G62" s="25">
-        <v>26.894763152131802</v>
+        <v>29.028793083490299</v>
       </c>
       <c r="H62" s="25">
-        <v>3.3870913901954101</v>
+        <v>2.9293751410009401</v>
       </c>
       <c r="I62" s="25">
-        <v>50.5593846179693</v>
+        <v>48.416123819427099</v>
       </c>
       <c r="J62" s="26">
-        <v>19.158758277212399</v>
+        <v>19.625708175350699</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3212,28 +3327,28 @@
         <v>127</v>
       </c>
       <c r="C63" s="25">
-        <v>60.050543425412499</v>
+        <v>61.755231999999999</v>
       </c>
       <c r="D63" s="25">
-        <v>44.938758971166898</v>
+        <v>50.324047999999998</v>
       </c>
       <c r="E63" s="26">
-        <v>74.706004118302104</v>
+        <v>72.578183999999993</v>
       </c>
       <c r="F63" s="25">
-        <v>42.906292162173003</v>
+        <v>28.179629372493299</v>
       </c>
       <c r="G63" s="25">
-        <v>45.1967533175456</v>
+        <v>56.444100301996301</v>
       </c>
       <c r="H63" s="25">
-        <v>1.7619176565246699</v>
+        <v>2.5598342523370601</v>
       </c>
       <c r="I63" s="25">
-        <v>40.783547788160099</v>
+        <v>31.4204174650494</v>
       </c>
       <c r="J63" s="26">
-        <v>12.2577827414217</v>
+        <v>9.5756476260391601</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
@@ -3242,28 +3357,28 @@
         <v>128</v>
       </c>
       <c r="C64" s="29">
-        <v>64.156855162419205</v>
+        <v>64.556068965517198</v>
       </c>
       <c r="D64" s="29">
-        <v>52.063592970297798</v>
+        <v>52.957172413793103</v>
       </c>
       <c r="E64" s="30">
-        <v>76.970827612455594</v>
+        <v>76.663172413793106</v>
       </c>
       <c r="F64" s="29">
-        <v>32.875806072939199</v>
+        <v>32.752781485149697</v>
       </c>
       <c r="G64" s="29">
-        <v>66.223451408489495</v>
+        <v>62.391192024158002</v>
       </c>
       <c r="H64" s="29">
-        <v>4.6869915331613798</v>
+        <v>4.3846048198842498</v>
       </c>
       <c r="I64" s="29">
-        <v>25.942397932379802</v>
+        <v>28.591214422887901</v>
       </c>
       <c r="J64" s="30">
-        <v>3.14715076956786</v>
+        <v>4.6329842066670501</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
@@ -3272,28 +3387,28 @@
         <v>129</v>
       </c>
       <c r="C65" s="32">
-        <v>59.404180889467398</v>
+        <v>60.182166666666703</v>
       </c>
       <c r="D65" s="32">
-        <v>41.310685528683202</v>
+        <v>43.9009</v>
       </c>
       <c r="E65" s="30">
-        <v>76.708299360465901</v>
+        <v>76.022766666666698</v>
       </c>
       <c r="F65" s="32">
-        <v>56.066774253436598</v>
+        <v>47.827899209109603</v>
       </c>
       <c r="G65" s="32">
-        <v>42.588103299499998</v>
+        <v>43.608779861617897</v>
       </c>
       <c r="H65" s="32">
-        <v>1.6732401335871301</v>
+        <v>2.0395679876811199</v>
       </c>
       <c r="I65" s="32">
-        <v>42.7610459741</v>
+        <v>40.872796009647999</v>
       </c>
       <c r="J65" s="30">
-        <v>12.9776126684094</v>
+        <v>13.4788574079809</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3302,28 +3417,28 @@
         <v>130</v>
       </c>
       <c r="C66" s="29">
-        <v>60.666443940724697</v>
+        <v>62.635213483146103</v>
       </c>
       <c r="D66" s="29">
-        <v>46.699430688638799</v>
+        <v>52.273775280898903</v>
       </c>
       <c r="E66" s="30">
-        <v>74.275456856668697</v>
+        <v>72.608320224719094</v>
       </c>
       <c r="F66" s="29">
-        <v>46.759160134727502</v>
+        <v>38.526221653512202</v>
       </c>
       <c r="G66" s="29">
-        <v>44.9049254657793</v>
+        <v>52.627907518987101</v>
       </c>
       <c r="H66" s="29">
-        <v>1.7878312842316999</v>
+        <v>2.6112741016557601</v>
       </c>
       <c r="I66" s="29">
-        <v>40.9394249051008</v>
+        <v>33.786208642028697</v>
       </c>
       <c r="J66" s="30">
-        <v>12.3678197837051</v>
+        <v>10.974609462629401</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
@@ -3332,28 +3447,28 @@
         <v>131</v>
       </c>
       <c r="C67" s="34">
-        <v>66.194999078557501</v>
+        <v>65.110150000000004</v>
       </c>
       <c r="D67" s="34">
-        <v>56.591895526279998</v>
+        <v>56.252049999999997</v>
       </c>
       <c r="E67" s="35">
-        <v>75.948913033022905</v>
+        <v>74.147649999999999</v>
       </c>
       <c r="F67" s="34">
-        <v>62.768848893550803</v>
+        <v>58.479843967791702</v>
       </c>
       <c r="G67" s="34">
-        <v>29.894452663432698</v>
+        <v>31.0306301733022</v>
       </c>
       <c r="H67" s="34">
-        <v>3.0808606383142001</v>
+        <v>2.7613343408528701</v>
       </c>
       <c r="I67" s="34">
-        <v>43.068672009037499</v>
+        <v>44.156437619066203</v>
       </c>
       <c r="J67" s="35">
-        <v>23.9560137400671</v>
+        <v>22.051599258371802</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
@@ -3362,28 +3477,28 @@
         <v>132</v>
       </c>
       <c r="C68" s="32">
-        <v>54.902622125075901</v>
+        <v>59.42792</v>
       </c>
       <c r="D68" s="32">
-        <v>43.0850823661794</v>
+        <v>48.997</v>
       </c>
       <c r="E68" s="30">
-        <v>66.858540984972393</v>
+        <v>70.052760000000006</v>
       </c>
       <c r="F68" s="32">
-        <v>64.050653409174899</v>
+        <v>67.938922490540193</v>
       </c>
       <c r="G68" s="32">
-        <v>28.766862867782901</v>
+        <v>30.4419748140878</v>
       </c>
       <c r="H68" s="32">
-        <v>4.86115015998225</v>
+        <v>4.0583252535613701</v>
       </c>
       <c r="I68" s="32">
-        <v>52.852440947780899</v>
+        <v>48.579260432296699</v>
       </c>
       <c r="J68" s="30">
-        <v>13.5195397494152</v>
+        <v>16.920437362725</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
@@ -3392,28 +3507,28 @@
         <v>133</v>
       </c>
       <c r="C69" s="32">
-        <v>77.071873396618798</v>
+        <v>77.273333333333298</v>
       </c>
       <c r="D69" s="32">
-        <v>74.4228202313423</v>
+        <v>75.669333333333299</v>
       </c>
       <c r="E69" s="30">
-        <v>79.821202829242097</v>
+        <v>78.936166666666693</v>
       </c>
       <c r="F69" s="32">
-        <v>72.154928837001904</v>
+        <v>76.116624953242606</v>
       </c>
       <c r="G69" s="32">
-        <v>27.3998503796462</v>
+        <v>26.258997199196799</v>
       </c>
       <c r="H69" s="32">
-        <v>1.91739395409146</v>
+        <v>1.79072465433016</v>
       </c>
       <c r="I69" s="32">
-        <v>49.913995193719799</v>
+        <v>50.1492017113695</v>
       </c>
       <c r="J69" s="30">
-        <v>20.768762335759099</v>
+        <v>21.801080113949102</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
@@ -3422,28 +3537,28 @@
         <v>134</v>
       </c>
       <c r="C70" s="32">
-        <v>70.367430429715796</v>
+        <v>69.508181818181797</v>
       </c>
       <c r="D70" s="32">
-        <v>67.452422405915897</v>
+        <v>64.360909090909104</v>
       </c>
       <c r="E70" s="30">
-        <v>73.319065595536799</v>
+        <v>74.495363636363706</v>
       </c>
       <c r="F70" s="32">
-        <v>77.480744498170097</v>
+        <v>72.641631828543396</v>
       </c>
       <c r="G70" s="32">
-        <v>19.8397550611074</v>
+        <v>20.567481474521099</v>
       </c>
       <c r="H70" s="32">
-        <v>2.2236323642140001</v>
+        <v>2.10661179021935</v>
       </c>
       <c r="I70" s="32">
-        <v>60.0522790256653</v>
+        <v>58.816183562204401</v>
       </c>
       <c r="J70" s="30">
-        <v>17.884337159657601</v>
+        <v>18.509727240789399</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
@@ -3452,28 +3567,28 @@
         <v>135</v>
       </c>
       <c r="C71" s="32">
-        <v>58.707740259608997</v>
+        <v>64.576800000000006</v>
       </c>
       <c r="D71" s="32">
-        <v>52.920907220819998</v>
+        <v>58.823666666666703</v>
       </c>
       <c r="E71" s="30">
-        <v>64.529474974623696</v>
+        <v>70.490399999999994</v>
       </c>
       <c r="F71" s="32">
-        <v>78.368611054679405</v>
+        <v>76.500452652544894</v>
       </c>
       <c r="G71" s="32">
-        <v>18.640944682498802</v>
+        <v>18.5193355291158</v>
       </c>
       <c r="H71" s="32">
-        <v>3.6868887930494001</v>
+        <v>2.86723381749225</v>
       </c>
       <c r="I71" s="32">
-        <v>63.3869905053281</v>
+        <v>60.896152726430998</v>
       </c>
       <c r="J71" s="30">
-        <v>14.285171218735201</v>
+        <v>17.717277099375799</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
@@ -3482,28 +3597,28 @@
         <v>136</v>
       </c>
       <c r="C72" s="32">
-        <v>70.375826283405402</v>
+        <v>66.429625000000001</v>
       </c>
       <c r="D72" s="32">
-        <v>62.450239271546799</v>
+        <v>57.069125</v>
       </c>
       <c r="E72" s="30">
-        <v>78.487223425153701</v>
+        <v>75.865875000000003</v>
       </c>
       <c r="F72" s="32">
-        <v>72.345411622357005</v>
+        <v>70.766788029205998</v>
       </c>
       <c r="G72" s="32">
-        <v>20.904115139303698</v>
+        <v>24.786134769103899</v>
       </c>
       <c r="H72" s="32">
-        <v>1.0353574975415301</v>
+        <v>1.4810275344230199</v>
       </c>
       <c r="I72" s="32">
-        <v>47.5041990495601</v>
+        <v>47.358396999458101</v>
       </c>
       <c r="J72" s="30">
-        <v>30.556329676157802</v>
+        <v>26.3744415936842</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
@@ -3512,28 +3627,28 @@
         <v>137</v>
       </c>
       <c r="C73" s="32">
-        <v>71.763578535412805</v>
+        <v>68.758466666666706</v>
       </c>
       <c r="D73" s="32">
-        <v>68.178012659497995</v>
+        <v>63.9758</v>
       </c>
       <c r="E73" s="30">
-        <v>75.521299339931005</v>
+        <v>73.816733333333403</v>
       </c>
       <c r="F73" s="32">
-        <v>64.906075105666304</v>
+        <v>52.982781055139597</v>
       </c>
       <c r="G73" s="32">
-        <v>28.2452550390922</v>
+        <v>29.230105657628499</v>
       </c>
       <c r="H73" s="32">
-        <v>2.8705140661530999</v>
+        <v>2.81822887573114</v>
       </c>
       <c r="I73" s="32">
-        <v>48.981761045848302</v>
+        <v>48.065165221999997</v>
       </c>
       <c r="J73" s="30">
-        <v>19.902470363014501</v>
+        <v>19.886501728275999</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3542,28 +3657,28 @@
         <v>138</v>
       </c>
       <c r="C74" s="29">
-        <v>43.969114376064198</v>
+        <v>45.63</v>
       </c>
       <c r="D74" s="29">
-        <v>19.994782965531201</v>
+        <v>24.527200000000001</v>
       </c>
       <c r="E74" s="30">
-        <v>68.277997941207005</v>
+        <v>67.068200000000004</v>
       </c>
       <c r="F74" s="29">
-        <v>33.220147526417698</v>
+        <v>30.544303595464001</v>
       </c>
       <c r="G74" s="29">
-        <v>60.794696566417699</v>
+        <v>62.545379285866503</v>
       </c>
       <c r="H74" s="29">
-        <v>3.8058699657202202</v>
+        <v>3.8263295111445101</v>
       </c>
       <c r="I74" s="29">
-        <v>26.1310439337643</v>
+        <v>24.890113216600501</v>
       </c>
       <c r="J74" s="30">
-        <v>9.2683902654005106</v>
+        <v>8.7381815103774105</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
@@ -3572,28 +3687,28 @@
         <v>139</v>
       </c>
       <c r="C75" s="34">
-        <v>67.523940822647504</v>
+        <v>69.384699999999995</v>
       </c>
       <c r="D75" s="34">
-        <v>55.7963879252395</v>
+        <v>60.213900000000002</v>
       </c>
       <c r="E75" s="35">
-        <v>79.447587837077606</v>
+        <v>78.645899999999997</v>
       </c>
       <c r="F75" s="34">
-        <v>46.067222642500703</v>
+        <v>41.002168081778599</v>
       </c>
       <c r="G75" s="34">
-        <v>49.449196112213002</v>
+        <v>50.349625548359597</v>
       </c>
       <c r="H75" s="34">
-        <v>3.3512270769209098</v>
+        <v>3.04479774812134</v>
       </c>
       <c r="I75" s="34">
-        <v>34.494182020100801</v>
+        <v>33.850119369056799</v>
       </c>
       <c r="J75" s="35">
-        <v>12.705394954443801</v>
+        <v>12.7554579529268</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
@@ -3602,28 +3717,28 @@
         <v>140</v>
       </c>
       <c r="C76" s="32">
-        <v>65.391934570248793</v>
+        <v>64.770750000000007</v>
       </c>
       <c r="D76" s="32">
-        <v>55.0806602300867</v>
+        <v>53.806750000000001</v>
       </c>
       <c r="E76" s="30">
-        <v>76.244122068862893</v>
+        <v>76.113333333333401</v>
       </c>
       <c r="F76" s="32">
-        <v>33.3448293103108</v>
+        <v>34.579838532053799</v>
       </c>
       <c r="G76" s="32">
-        <v>65.764170461642806</v>
+        <v>61.705770218845601</v>
       </c>
       <c r="H76" s="32">
-        <v>4.6718461246705196</v>
+        <v>4.3416891676366998</v>
       </c>
       <c r="I76" s="32">
-        <v>26.897935517940599</v>
+        <v>29.791374626553701</v>
       </c>
       <c r="J76" s="30">
-        <v>2.6660385913872</v>
+        <v>4.16116083619342</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3632,28 +3747,28 @@
         <v>141</v>
       </c>
       <c r="C77" s="29">
-        <v>56.947789790650603</v>
+        <v>58.433296296296298</v>
       </c>
       <c r="D77" s="29">
-        <v>50.693072635451998</v>
+        <v>52.365037037037098</v>
       </c>
       <c r="E77" s="30">
-        <v>63.623545882431699</v>
+        <v>64.929481481481503</v>
       </c>
       <c r="F77" s="29">
-        <v>11.2041033276261</v>
+        <v>10.6071605154071</v>
       </c>
       <c r="G77" s="29">
-        <v>85.765937944369796</v>
+        <v>84.772420577760002</v>
       </c>
       <c r="H77" s="29">
-        <v>4.5032238318838198</v>
+        <v>4.3073001186947701</v>
       </c>
       <c r="I77" s="29">
-        <v>8.9862983149197593</v>
+        <v>9.9027426040966695</v>
       </c>
       <c r="J77" s="30">
-        <v>0.74453899847742</v>
+        <v>1.01753570695937</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
@@ -3662,28 +3777,28 @@
         <v>142</v>
       </c>
       <c r="C78" s="34">
-        <v>58.927389800311701</v>
+        <v>63.253466666666696</v>
       </c>
       <c r="D78" s="34">
-        <v>52.5033867499723</v>
+        <v>55.900466666666702</v>
       </c>
       <c r="E78" s="35">
-        <v>65.312407085293501</v>
+        <v>70.486733333333405</v>
       </c>
       <c r="F78" s="34">
-        <v>70.977090247036699</v>
+        <v>61.651348859344502</v>
       </c>
       <c r="G78" s="34">
-        <v>20.541891681846401</v>
+        <v>24.948116295234499</v>
       </c>
       <c r="H78" s="34">
-        <v>3.55618805223774</v>
+        <v>3.2801398015830299</v>
       </c>
       <c r="I78" s="34">
-        <v>61.765951491316002</v>
+        <v>56.816011887244201</v>
       </c>
       <c r="J78" s="35">
-        <v>14.135965343934201</v>
+        <v>14.9557326999686</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
@@ -3692,28 +3807,28 @@
         <v>143</v>
       </c>
       <c r="C79" s="32">
-        <v>56.900317391355401</v>
+        <v>61.717043478260898</v>
       </c>
       <c r="D79" s="32">
-        <v>39.333468887045797</v>
+        <v>45.050869565217397</v>
       </c>
       <c r="E79" s="30">
-        <v>73.403099216133199</v>
+        <v>74.8788695652174</v>
       </c>
       <c r="F79" s="32">
-        <v>24.320950210465298</v>
+        <v>27.2417232515017</v>
       </c>
       <c r="G79" s="32">
-        <v>83.989746834796506</v>
+        <v>75.905793270911701</v>
       </c>
       <c r="H79" s="32">
-        <v>1.9973798808465399</v>
+        <v>2.5656225012090799</v>
       </c>
       <c r="I79" s="32">
-        <v>12.1411467100606</v>
+        <v>17.511293634131</v>
       </c>
       <c r="J79" s="30">
-        <v>1.8717258250759199</v>
+        <v>4.01729059374816</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
@@ -3722,28 +3837,28 @@
         <v>144</v>
       </c>
       <c r="C80" s="32">
-        <v>66.316379825923093</v>
+        <v>65.2858421052632</v>
       </c>
       <c r="D80" s="32">
-        <v>56.8243220928589</v>
+        <v>57.255763157894798</v>
       </c>
       <c r="E80" s="30">
-        <v>76.018708498256402</v>
+        <v>73.544921052631594</v>
       </c>
       <c r="F80" s="32">
-        <v>62.473978936844802</v>
+        <v>63.432724996667098</v>
       </c>
       <c r="G80" s="32">
-        <v>32.760673965869501</v>
+        <v>30.954009062684801</v>
       </c>
       <c r="H80" s="32">
-        <v>3.2309563348774302</v>
+        <v>2.76388844246287</v>
       </c>
       <c r="I80" s="32">
-        <v>40.211824130603503</v>
+        <v>44.453154054669199</v>
       </c>
       <c r="J80" s="30">
-        <v>23.796543807785898</v>
+        <v>21.828948440183201</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3752,28 +3867,28 @@
         <v>145</v>
       </c>
       <c r="C81" s="29">
-        <v>60.320516206355499</v>
+        <v>61.763843137254902</v>
       </c>
       <c r="D81" s="29">
-        <v>45.419129501929703</v>
+        <v>51.513098039215699</v>
       </c>
       <c r="E81" s="30">
-        <v>74.817662410735807</v>
+        <v>72.059401960784299</v>
       </c>
       <c r="F81" s="29">
-        <v>44.499046585898597</v>
+        <v>28.3911180076189</v>
       </c>
       <c r="G81" s="29">
-        <v>44.899008671386703</v>
+        <v>54.942315698376802</v>
       </c>
       <c r="H81" s="29">
-        <v>1.76011043284049</v>
+        <v>2.5593875952527201</v>
       </c>
       <c r="I81" s="29">
-        <v>41.003384433928403</v>
+        <v>32.493731490323199</v>
       </c>
       <c r="J81" s="30">
-        <v>12.3374979827879</v>
+        <v>10.0045648341077</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
@@ -3782,28 +3897,28 @@
         <v>146</v>
       </c>
       <c r="C82" s="34">
-        <v>70.4936496382619</v>
+        <v>70.450086956521801</v>
       </c>
       <c r="D82" s="34">
-        <v>64.344583875469695</v>
+        <v>64.605739130434799</v>
       </c>
       <c r="E82" s="35">
-        <v>76.791657028557495</v>
+        <v>76.460695652173897</v>
       </c>
       <c r="F82" s="34">
-        <v>80.142585676147803</v>
+        <v>81.158181675395895</v>
       </c>
       <c r="G82" s="34">
-        <v>16.4489659737322</v>
+        <v>17.176322165334</v>
       </c>
       <c r="H82" s="34">
-        <v>1.4486227822587301</v>
+        <v>1.7221567203674899</v>
       </c>
       <c r="I82" s="34">
-        <v>51.935695188596299</v>
+        <v>53.180330630795098</v>
       </c>
       <c r="J82" s="35">
-        <v>30.1667185378688</v>
+        <v>27.921194860831701</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
@@ -3812,28 +3927,28 @@
         <v>147</v>
       </c>
       <c r="C83" s="32">
-        <v>53.111191634307801</v>
+        <v>53.4301666666667</v>
       </c>
       <c r="D83" s="32">
-        <v>31.501288873306802</v>
+        <v>34.7456666666667</v>
       </c>
       <c r="E83" s="30">
-        <v>74.447026873870698</v>
+        <v>72.060333333333404</v>
       </c>
       <c r="F83" s="32">
-        <v>64.157285052707607</v>
+        <v>59.936386945885701</v>
       </c>
       <c r="G83" s="32">
-        <v>24.032834809057601</v>
+        <v>26.988437243518501</v>
       </c>
       <c r="H83" s="32">
-        <v>3.0721450550182698</v>
+        <v>2.9007820367184798</v>
       </c>
       <c r="I83" s="32">
-        <v>42.678562159798801</v>
+        <v>40.571082020737698</v>
       </c>
       <c r="J83" s="30">
-        <v>30.216460318372999</v>
+        <v>29.539701037784798</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
@@ -3842,28 +3957,28 @@
         <v>148</v>
       </c>
       <c r="C84" s="32">
-        <v>59.189669201157898</v>
+        <v>60.873043478260897</v>
       </c>
       <c r="D84" s="32">
-        <v>48.9442901434508</v>
+        <v>51.296478260869598</v>
       </c>
       <c r="E84" s="30">
-        <v>69.521979325608498</v>
+        <v>70.618826086956503</v>
       </c>
       <c r="F84" s="32">
-        <v>59.860725817221301</v>
+        <v>55.247660359850897</v>
       </c>
       <c r="G84" s="32">
-        <v>30.0647145899019</v>
+        <v>34.620038971466201</v>
       </c>
       <c r="H84" s="32">
-        <v>4.4394443676749802</v>
+        <v>3.8370459485568</v>
       </c>
       <c r="I84" s="32">
-        <v>51.874943941413498</v>
+        <v>47.590378750274397</v>
       </c>
       <c r="J84" s="30">
-        <v>13.6208916716724</v>
+        <v>13.9525319528237</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
@@ -3872,28 +3987,28 @@
         <v>149</v>
       </c>
       <c r="C85" s="32">
-        <v>53.8592573355862</v>
+        <v>64.206000000000003</v>
       </c>
       <c r="D85" s="32">
-        <v>29.3744443476985</v>
+        <v>53.092916666666703</v>
       </c>
       <c r="E85" s="30">
-        <v>77.082411642923901</v>
+        <v>75.633916666666707</v>
       </c>
       <c r="F85" s="32">
-        <v>65.013115246688798</v>
+        <v>53.660725521946503</v>
       </c>
       <c r="G85" s="32">
-        <v>24.9993248299381</v>
+        <v>33.752717194452401</v>
       </c>
       <c r="H85" s="32">
-        <v>2.0515162000712799</v>
+        <v>2.2717076530582698</v>
       </c>
       <c r="I85" s="32">
-        <v>60.677638197924701</v>
+        <v>50.89892177782</v>
       </c>
       <c r="J85" s="30">
-        <v>12.2715202166733</v>
+        <v>13.076652405017001</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
@@ -3902,28 +4017,28 @@
         <v>150</v>
       </c>
       <c r="C86" s="32">
-        <v>56.0339992294452</v>
+        <v>58.486499999999999</v>
       </c>
       <c r="D86" s="32">
-        <v>48.797156226382597</v>
+        <v>50.554000000000002</v>
       </c>
       <c r="E86" s="30">
-        <v>63.499410905346998</v>
+        <v>66.198999999999998</v>
       </c>
       <c r="F86" s="32">
-        <v>12.9249190426823</v>
+        <v>30.284737810955399</v>
       </c>
       <c r="G86" s="32">
-        <v>84.427796590437197</v>
+        <v>81.834000447155702</v>
       </c>
       <c r="H86" s="32">
-        <v>5.1929099461427297</v>
+        <v>4.7996932775654502</v>
       </c>
       <c r="I86" s="32">
-        <v>9.8469916053834901</v>
+        <v>12.393749741078</v>
       </c>
       <c r="J86" s="30">
-        <v>0.53229704164859004</v>
+        <v>0.97256587524227001</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
@@ -3932,28 +4047,28 @@
         <v>151</v>
       </c>
       <c r="C87" s="32">
-        <v>64.947380805377406</v>
+        <v>60.049272727272701</v>
       </c>
       <c r="D87" s="32">
-        <v>54.407968428707299</v>
+        <v>46.970727272727302</v>
       </c>
       <c r="E87" s="30">
-        <v>75.620428622725697</v>
+        <v>73.183499999999995</v>
       </c>
       <c r="F87" s="32">
-        <v>38.889117250588299</v>
+        <v>30.333863839580399</v>
       </c>
       <c r="G87" s="32">
-        <v>53.840143700043001</v>
+        <v>57.855025350748903</v>
       </c>
       <c r="H87" s="32">
-        <v>1.5358007331521999</v>
+        <v>2.3882060206572402</v>
       </c>
       <c r="I87" s="32">
-        <v>31.634692830791501</v>
+        <v>29.258997667373301</v>
       </c>
       <c r="J87" s="30">
-        <v>12.989366020140199</v>
+        <v>10.497772052159901</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3962,28 +4077,28 @@
         <v>152</v>
       </c>
       <c r="C88" s="29">
-        <v>60.722772588397198</v>
+        <v>62.962000000000003</v>
       </c>
       <c r="D88" s="29">
-        <v>52.892148187119801</v>
+        <v>53.581557692307697</v>
       </c>
       <c r="E88" s="30">
-        <v>68.178230646336203</v>
+        <v>70.703999999999994</v>
       </c>
       <c r="F88" s="29">
-        <v>9.1150411496064496</v>
+        <v>10.701133028946201</v>
       </c>
       <c r="G88" s="29">
-        <v>91.589586170452506</v>
+        <v>87.675646570492106</v>
       </c>
       <c r="H88" s="29">
-        <v>2.6757254124523899</v>
+        <v>3.3557917654731999</v>
       </c>
       <c r="I88" s="29">
-        <v>5.26819232897018</v>
+        <v>8.0670942357506998</v>
       </c>
       <c r="J88" s="30">
-        <v>0.46648825356858997</v>
+        <v>0.90146431446007003</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
@@ -3992,28 +4107,28 @@
         <v>153</v>
       </c>
       <c r="C89" s="34">
-        <v>71.216124990308302</v>
+        <v>68.106212121212096</v>
       </c>
       <c r="D89" s="34">
-        <v>65.413790154340603</v>
+        <v>61.6236363636364</v>
       </c>
       <c r="E89" s="35">
-        <v>77.181190990542703</v>
+        <v>74.742999999999995</v>
       </c>
       <c r="F89" s="34">
-        <v>78.947570646073999</v>
+        <v>74.885861672716999</v>
       </c>
       <c r="G89" s="34">
-        <v>16.738242832495899</v>
+        <v>18.129242997008799</v>
       </c>
       <c r="H89" s="34">
-        <v>1.66893642808958</v>
+        <v>1.8955404591595799</v>
       </c>
       <c r="I89" s="34">
-        <v>51.845630575861399</v>
+        <v>52.842172760822599</v>
       </c>
       <c r="J89" s="35">
-        <v>29.7471921556537</v>
+        <v>27.1330464519638</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.35">
@@ -4022,28 +4137,28 @@
         <v>154</v>
       </c>
       <c r="C90" s="32">
-        <v>60.448810445450299</v>
+        <v>67.2574166666667</v>
       </c>
       <c r="D90" s="32">
-        <v>41.450343980541099</v>
+        <v>56.058750000000003</v>
       </c>
       <c r="E90" s="30">
-        <v>79.407752518367701</v>
+        <v>78.420749999999998</v>
       </c>
       <c r="F90" s="32">
-        <v>60.513575666319397</v>
+        <v>66.325737063289594</v>
       </c>
       <c r="G90" s="32">
-        <v>38.9175587359194</v>
+        <v>35.933050764294599</v>
       </c>
       <c r="H90" s="32">
-        <v>4.0517701975625799</v>
+        <v>3.22802093625404</v>
       </c>
       <c r="I90" s="32">
-        <v>43.366912537285003</v>
+        <v>42.767694925293398</v>
       </c>
       <c r="J90" s="30">
-        <v>13.6637524355368</v>
+        <v>18.071229154925302</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
@@ -4052,28 +4167,28 @@
         <v>155</v>
       </c>
       <c r="C91" s="32">
-        <v>61.329173271524901</v>
+        <v>58.360399999999998</v>
       </c>
       <c r="D91" s="32">
-        <v>52.670565970562201</v>
+        <v>48.466000000000001</v>
       </c>
       <c r="E91" s="30">
-        <v>70.347737096434003</v>
+        <v>68.501400000000004</v>
       </c>
       <c r="F91" s="32">
-        <v>51.996491384732501</v>
+        <v>47.7804730681599</v>
       </c>
       <c r="G91" s="32">
-        <v>41.579833318953199</v>
+        <v>46.766472803852999</v>
       </c>
       <c r="H91" s="32">
-        <v>2.59066009285795</v>
+        <v>2.9872150722983801</v>
       </c>
       <c r="I91" s="32">
-        <v>39.890420086347902</v>
+        <v>36.791539581443601</v>
       </c>
       <c r="J91" s="30">
-        <v>15.939078016451401</v>
+        <v>13.4547180967543</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
@@ -4082,28 +4197,28 @@
         <v>156</v>
       </c>
       <c r="C92" s="32">
-        <v>61.224204162982701</v>
+        <v>63.600636363636397</v>
       </c>
       <c r="D92" s="32">
-        <v>52.047250750811301</v>
+        <v>52.511590909090899</v>
       </c>
       <c r="E92" s="30">
-        <v>69.986426699948893</v>
+        <v>73.464954545454603</v>
       </c>
       <c r="F92" s="32">
-        <v>43.7394073420434</v>
+        <v>35.1648867279212</v>
       </c>
       <c r="G92" s="32">
-        <v>53.341511310403597</v>
+        <v>57.375830259589698</v>
       </c>
       <c r="H92" s="32">
-        <v>2.6822292461552699</v>
+        <v>2.7998924021113001</v>
       </c>
       <c r="I92" s="32">
-        <v>33.800033109550398</v>
+        <v>30.184233440395499</v>
       </c>
       <c r="J92" s="30">
-        <v>10.1762196281672</v>
+        <v>9.6400361892139497</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
@@ -4112,28 +4227,28 @@
         <v>157</v>
       </c>
       <c r="C93" s="32">
-        <v>75.350644638954904</v>
+        <v>72.666375000000002</v>
       </c>
       <c r="D93" s="32">
-        <v>69.774152515245802</v>
+        <v>67.463750000000005</v>
       </c>
       <c r="E93" s="30">
-        <v>81.115278738107193</v>
+        <v>78.119375000000005</v>
       </c>
       <c r="F93" s="32">
-        <v>80.903544505271896</v>
+        <v>70.690566936889198</v>
       </c>
       <c r="G93" s="32">
-        <v>15.0537791238401</v>
+        <v>18.083076901904601</v>
       </c>
       <c r="H93" s="32">
-        <v>0.82455590147847002</v>
+        <v>0.95768646378925004</v>
       </c>
       <c r="I93" s="32">
-        <v>49.706985888883203</v>
+        <v>51.403508513520499</v>
       </c>
       <c r="J93" s="30">
-        <v>34.414682411192999</v>
+        <v>29.555734716008601</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4142,28 +4257,28 @@
         <v>157</v>
       </c>
       <c r="C94" s="29">
-        <v>64.118896203004994</v>
+        <v>62.620312499999997</v>
       </c>
       <c r="D94" s="29">
-        <v>52.493501449532097</v>
+        <v>53.260937499999997</v>
       </c>
       <c r="E94" s="30">
-        <v>75.703724185252497</v>
+        <v>72.150062500000004</v>
       </c>
       <c r="F94" s="29">
-        <v>55.5502228906075</v>
+        <v>48.4395654848731</v>
       </c>
       <c r="G94" s="29">
-        <v>38.050387654719103</v>
+        <v>42.252664182940499</v>
       </c>
       <c r="H94" s="29">
-        <v>2.06152676244358</v>
+        <v>2.5608481496733799</v>
       </c>
       <c r="I94" s="29">
-        <v>38.527850976238597</v>
+        <v>35.880905683017602</v>
       </c>
       <c r="J94" s="30">
-        <v>21.360232596735901</v>
+        <v>19.305581984368501</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
@@ -4172,28 +4287,28 @@
         <v>158</v>
       </c>
       <c r="C95" s="34">
-        <v>69.037155107706397</v>
+        <v>67.833931034482802</v>
       </c>
       <c r="D95" s="34">
-        <v>64.093709138074999</v>
+        <v>61.898034482758597</v>
       </c>
       <c r="E95" s="35">
-        <v>74.044452871078093</v>
+        <v>73.798689655172396</v>
       </c>
       <c r="F95" s="34">
-        <v>76.752692636942101</v>
+        <v>69.533352995257104</v>
       </c>
       <c r="G95" s="34">
-        <v>18.777410973449399</v>
+        <v>20.817479698291699</v>
       </c>
       <c r="H95" s="34">
-        <v>2.55909923657702</v>
+        <v>2.1390387315976498</v>
       </c>
       <c r="I95" s="34">
-        <v>56.803055097110203</v>
+        <v>54.137212378369803</v>
       </c>
       <c r="J95" s="35">
-        <v>21.860432933573801</v>
+        <v>22.9062709310587</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.35">
@@ -4202,28 +4317,28 @@
         <v>159</v>
       </c>
       <c r="C96" s="32">
-        <v>56.8565252972192</v>
+        <v>63.525571428571403</v>
       </c>
       <c r="D96" s="32">
-        <v>33.932296703698498</v>
+        <v>49.7437857142857</v>
       </c>
       <c r="E96" s="30">
-        <v>79.414348441061406</v>
+        <v>77.615642857142902</v>
       </c>
       <c r="F96" s="32">
-        <v>53.737578521253901</v>
+        <v>55.009231061577402</v>
       </c>
       <c r="G96" s="32">
-        <v>42.530311753278298</v>
+        <v>42.189303796142802</v>
       </c>
       <c r="H96" s="32">
-        <v>2.7261658702996199</v>
+        <v>2.8747961546356402</v>
       </c>
       <c r="I96" s="32">
-        <v>38.834488001978798</v>
+        <v>38.316987715832198</v>
       </c>
       <c r="J96" s="30">
-        <v>15.909030495958699</v>
+        <v>16.6189094944022</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4232,28 +4347,28 @@
         <v>160</v>
       </c>
       <c r="C97" s="37">
-        <v>54.899444267325698</v>
+        <v>58.7790769230769</v>
       </c>
       <c r="D97" s="37">
-        <v>38.4867990004104</v>
+        <v>44.173615384615402</v>
       </c>
       <c r="E97" s="38">
-        <v>71.252194774195701</v>
+        <v>73.417307692307702</v>
       </c>
       <c r="F97" s="37">
-        <v>64.780759654213497</v>
+        <v>69.767864234831904</v>
       </c>
       <c r="G97" s="37">
-        <v>27.555235369476801</v>
+        <v>29.1620519102839</v>
       </c>
       <c r="H97" s="37">
-        <v>2.6795888505207799</v>
+        <v>2.7054107973043302</v>
       </c>
       <c r="I97" s="37">
-        <v>51.734801209784997</v>
+        <v>48.774674392283998</v>
       </c>
       <c r="J97" s="38">
-        <v>18.0303761408599</v>
+        <v>19.357863956226701</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
@@ -4269,71 +4384,182 @@
       <c r="J98" s="29"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+      <c r="A99" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="B99" s="41"/>
-      <c r="C99" s="42"/>
-      <c r="D99" s="42"/>
-      <c r="E99" s="42"/>
-      <c r="F99" s="42"/>
-      <c r="G99" s="42"/>
-      <c r="H99" s="42"/>
-      <c r="I99" s="42"/>
-      <c r="J99" s="42"/>
+      <c r="B99" s="42"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="43"/>
+      <c r="F99" s="43"/>
+      <c r="G99" s="43"/>
+      <c r="H99" s="43"/>
+      <c r="I99" s="43"/>
+      <c r="J99" s="43"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+      <c r="A100" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="B100" s="41"/>
-      <c r="C100" s="42"/>
-      <c r="D100" s="42"/>
-      <c r="E100" s="42"/>
-      <c r="F100" s="42"/>
-      <c r="G100" s="42"/>
-      <c r="H100" s="42"/>
-      <c r="I100" s="42"/>
-      <c r="J100" s="42"/>
+      <c r="B100" s="42"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="43"/>
+      <c r="F100" s="43"/>
+      <c r="G100" s="43"/>
+      <c r="H100" s="43"/>
+      <c r="I100" s="43"/>
+      <c r="J100" s="43"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+      <c r="A101" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="B101" s="41"/>
-      <c r="C101" s="42"/>
-      <c r="D101" s="42"/>
-      <c r="E101" s="42"/>
-      <c r="F101" s="42"/>
-      <c r="G101" s="42"/>
-      <c r="H101" s="42"/>
-      <c r="I101" s="42"/>
-      <c r="J101" s="42"/>
+      <c r="B101" s="42"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="43"/>
+      <c r="E101" s="43"/>
+      <c r="F101" s="43"/>
+      <c r="G101" s="43"/>
+      <c r="H101" s="43"/>
+      <c r="I101" s="43"/>
+      <c r="J101" s="43"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+      <c r="A102" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="B102" s="41"/>
-      <c r="C102" s="42"/>
-      <c r="D102" s="42"/>
-      <c r="E102" s="42"/>
-      <c r="F102" s="42"/>
-      <c r="G102" s="42"/>
-      <c r="H102" s="42"/>
-      <c r="I102" s="42"/>
-      <c r="J102" s="42"/>
+      <c r="B102" s="42"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="43"/>
+      <c r="E102" s="43"/>
+      <c r="F102" s="43"/>
+      <c r="G102" s="43"/>
+      <c r="H102" s="43"/>
+      <c r="I102" s="43"/>
+      <c r="J102" s="43"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B103" s="42"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="43"/>
+      <c r="E103" s="43"/>
+      <c r="F103" s="43"/>
+      <c r="G103" s="43"/>
+      <c r="H103" s="43"/>
+      <c r="I103" s="43"/>
+      <c r="J103" s="43"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B104" s="42"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="43"/>
+      <c r="E104" s="43"/>
+      <c r="F104" s="43"/>
+      <c r="G104" s="43"/>
+      <c r="H104" s="43"/>
+      <c r="I104" s="43"/>
+      <c r="J104" s="43"/>
     </row>
     <row r="105" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B105" s="43" t="s">
+      <c r="B105" s="44" t="s">
         <v>165</v>
       </c>
+      <c r="C105" s="43"/>
+      <c r="D105" s="43"/>
+      <c r="E105" s="43"/>
+      <c r="F105" s="43"/>
+      <c r="G105" s="43"/>
+      <c r="H105" s="43"/>
+      <c r="I105" s="43"/>
+      <c r="J105" s="43"/>
+    </row>
+    <row r="106" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B106" s="44"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="43"/>
+      <c r="E106" s="43"/>
+      <c r="F106" s="43"/>
+      <c r="G106" s="43"/>
+      <c r="H106" s="43"/>
+      <c r="I106" s="43"/>
+      <c r="J106" s="43"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B107" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="C107" s="43"/>
+      <c r="D107" s="43"/>
+      <c r="E107" s="43"/>
+      <c r="F107" s="43"/>
+      <c r="G107" s="43"/>
+      <c r="H107" s="43"/>
+      <c r="I107" s="43"/>
+      <c r="J107" s="43"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B108" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="C108" s="43"/>
+      <c r="D108" s="43"/>
+      <c r="E108" s="43"/>
+      <c r="F108" s="43"/>
+      <c r="G108" s="43"/>
+      <c r="H108" s="43"/>
+      <c r="I108" s="43"/>
+      <c r="J108" s="43"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B109" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C109" s="43"/>
+      <c r="D109" s="43"/>
+      <c r="E109" s="43"/>
+      <c r="F109" s="43"/>
+      <c r="G109" s="43"/>
+      <c r="H109" s="43"/>
+      <c r="I109" s="43"/>
+      <c r="J109" s="43"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B110" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="C110" s="43"/>
+      <c r="D110" s="43"/>
+      <c r="E110" s="43"/>
+      <c r="F110" s="43"/>
+      <c r="G110" s="43"/>
+      <c r="H110" s="43"/>
+      <c r="I110" s="43"/>
+      <c r="J110" s="43"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B111" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="C111" s="43"/>
+      <c r="D111" s="43"/>
+      <c r="E111" s="43"/>
+      <c r="F111" s="43"/>
+      <c r="G111" s="43"/>
+      <c r="H111" s="43"/>
+      <c r="I111" s="43"/>
+      <c r="J111" s="43"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B105" r:id="rId1"/>
+    <hyperlink ref="B105" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les séries chronologiques historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-fr-2020."/>
+    <hyperlink ref="B107" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails."/>
+    <hyperlink ref="B108" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs."/>
+    <hyperlink ref="B109" r:id="rId2"/>
+    <hyperlink ref="B111" r:id="rId3"/>
+    <hyperlink ref="B110" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>